--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -3,36 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B01B97D-7C9A-4505-9304-1E5C0E49FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/neaugust_cisco_com/Documents/Desktop/community/Community/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:801_{5B01B97D-7C9A-4505-9304-1E5C0E49FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9AF48E-C821-414D-915D-9B145DDAD388}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{6DE6B668-FE08-4B8D-B560-0D8A648BF416}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Runner" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>testname</t>
   </si>
@@ -56,6 +49,15 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>logintest</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -407,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D47CE9-2C00-4E65-8E0D-559184EC5EE9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,6 +458,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/neaugust_cisco_com/Documents/Desktop/community/Community/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:801_{5B01B97D-7C9A-4505-9304-1E5C0E49FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9AF48E-C821-414D-915D-9B145DDAD388}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:801_{5B01B97D-7C9A-4505-9304-1E5C0E49FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E98B1684-C20C-4240-B999-94F2351E21B1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{6DE6B668-FE08-4B8D-B560-0D8A648BF416}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{6DE6B668-FE08-4B8D-B560-0D8A648BF416}"/>
   </bookViews>
   <sheets>
     <sheet name="Runner" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>testname</t>
   </si>
@@ -57,7 +58,49 @@
     <t>sample</t>
   </si>
   <si>
+    <t>subheader</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>testdiscussion</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>communityheader</t>
+  </si>
+  <si>
+    <t>discussionForum</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>this is a test description</t>
+  </si>
+  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>startConversation</t>
+  </si>
+  <si>
+    <t>starting a conversation</t>
+  </si>
+  <si>
+    <t>Technology and Support</t>
+  </si>
+  <si>
+    <t>Network Management</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -93,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,16 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D47CE9-2C00-4E65-8E0D-559184EC5EE9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
@@ -449,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -466,16 +510,111 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA644CD-5D73-40B2-AAE5-D22291B4575E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>